--- a/Testdata/testdata.xlsx
+++ b/Testdata/testdata.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Techinvoke" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Add project" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Newlead</t>
   </si>
@@ -49,6 +50,15 @@
   </si>
   <si>
     <t xml:space="preserve">Abhimanyu singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time forge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maneesh@oodlestechnologies.com</t>
   </si>
 </sst>
 </file>
@@ -163,9 +173,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -201,7 +208,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,19 +258,59 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
